--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.2/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="899">
   <si>
     <t>anchor score</t>
   </si>
@@ -100,679 +100,679 @@
     <t>died</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>disgrace</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>crush</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>disgrace</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>delay</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>crush</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>cut</t>
   </si>
   <si>
     <t>social</t>
@@ -3076,10 +3076,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3137,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03268775977600842</v>
+        <v>0.03317985709910384</v>
       </c>
       <c r="C3">
         <v>242</v>
@@ -3187,7 +3187,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03227999629053303</v>
+        <v>0.03276595494517784</v>
       </c>
       <c r="C4">
         <v>236</v>
@@ -3237,7 +3237,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01361764849746285</v>
+        <v>0.01382265515495103</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -3258,7 +3258,7 @@
         <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K5">
         <v>0.009830717736653095</v>
@@ -3287,7 +3287,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01207075526280941</v>
+        <v>0.01225247424242967</v>
       </c>
       <c r="C6">
         <v>33</v>
@@ -3308,7 +3308,7 @@
         <v>2322</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>0.009491624869357748</v>
@@ -3337,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01169925808454986</v>
+        <v>0.01187538436622411</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3358,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>0.008718027028105015</v>
@@ -3387,7 +3387,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01029397467593688</v>
+        <v>0.01044894514245868</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -3408,7 +3408,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="K8">
         <v>0.008528069006768292</v>
@@ -3417,19 +3417,19 @@
         <v>222</v>
       </c>
       <c r="M8">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="N8">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3437,7 +3437,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01029397467593688</v>
+        <v>0.01044894514245868</v>
       </c>
       <c r="C9">
         <v>24</v>
@@ -3458,7 +3458,7 @@
         <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K9">
         <v>0.008254787277344413</v>
@@ -3487,7 +3487,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01029397467593688</v>
+        <v>0.01044894514245868</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -3508,7 +3508,7 @@
         <v>1666</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0.008114695866094418</v>
@@ -3537,7 +3537,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.009855730401299237</v>
+        <v>0.01000410332684886</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -3558,7 +3558,7 @@
         <v>29</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11">
         <v>0.008033546868462445</v>
@@ -3587,7 +3587,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.00962913159637078</v>
+        <v>0.009774093194069057</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -3608,7 +3608,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>0.007826994379020284</v>
@@ -3637,7 +3637,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009159131094950562</v>
+        <v>0.009297017078101153</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -3658,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="K13">
         <v>0.007550032877218295</v>
@@ -3667,19 +3667,19 @@
         <v>174</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3687,7 +3687,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009159131094950562</v>
+        <v>0.009297017078101153</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -3708,7 +3708,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14">
         <v>0.007125905648954288</v>
@@ -3737,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008914843575275022</v>
+        <v>0.00904905193611923</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3758,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K15">
         <v>0.006674883234073843</v>
@@ -3787,7 +3787,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008663670672916559</v>
+        <v>0.008794097755577993</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -3808,7 +3808,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K16">
         <v>0.006674883234073843</v>
@@ -3837,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008663670672916559</v>
+        <v>0.008794097755577993</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -3858,7 +3858,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17">
         <v>0.006450243044863441</v>
@@ -3887,7 +3887,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00840499512705906</v>
+        <v>0.008531527983118887</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K18">
         <v>0.006347851733175732</v>
@@ -3937,7 +3937,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008138101538013559</v>
+        <v>0.0082606164490805</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -3958,7 +3958,7 @@
         <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K19">
         <v>0.006084339516152471</v>
@@ -3987,7 +3987,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008138101538013559</v>
+        <v>0.0082606164490805</v>
       </c>
       <c r="C20">
         <v>15</v>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20">
         <v>0.00597568185535236</v>
@@ -4037,7 +4037,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008138101538013559</v>
+        <v>0.0082606164490805</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -4058,7 +4058,7 @@
         <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.00597568185535236</v>
@@ -4087,7 +4087,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007862153025739879</v>
+        <v>0.007980513674626342</v>
       </c>
       <c r="C22">
         <v>14</v>
@@ -4108,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K22">
         <v>0.005808885699447599</v>
@@ -4137,28 +4137,28 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007862153025739879</v>
+        <v>0.007690215400297754</v>
       </c>
       <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>14</v>
       </c>
-      <c r="D23">
-        <v>236</v>
-      </c>
-      <c r="E23">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F23">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>104</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.005666139420272237</v>
@@ -4187,7 +4187,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007576160225159102</v>
+        <v>0.007690215400297754</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -4205,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K24">
         <v>0.005608023633531644</v>
@@ -4237,7 +4237,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007576160225159102</v>
+        <v>0.007690215400297754</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -4255,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K25">
         <v>0.005119401745178945</v>
@@ -4287,13 +4287,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007576160225159102</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>0.005087304866103904</v>
@@ -4337,7 +4337,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007278939298717562</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27">
         <v>0.005022495788447307</v>
@@ -4387,28 +4387,28 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.007278939298717562</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C28">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>607</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K28">
         <v>0.004989775597871528</v>
@@ -4437,28 +4437,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007278939298717562</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C29">
         <v>12</v>
       </c>
       <c r="D29">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="E29">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F29">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>607</v>
+        <v>228</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K29">
         <v>0.004890301650567567</v>
@@ -4487,28 +4487,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.007278939298717562</v>
+        <v>0.007388519966478771</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="E30">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F30">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>228</v>
+        <v>82</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K30">
         <v>0.004719855198442008</v>
@@ -4537,28 +4537,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.007278939298717562</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="E31">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K31">
         <v>0.004719855198442008</v>
@@ -4587,7 +4587,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -4605,10 +4605,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K32">
         <v>0.004685021842681556</v>
@@ -4637,7 +4637,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C33">
         <v>11</v>
@@ -4655,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K33">
         <v>0.00439643062535384</v>
@@ -4687,7 +4687,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>253</v>
@@ -4737,28 +4737,28 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>220</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K35">
         <v>0.004283198799960009</v>
@@ -4787,28 +4787,28 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006969053800305103</v>
+        <v>0.007073969302105726</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
       <c r="D36">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="E36">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F36">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>220</v>
+        <v>658</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K36">
         <v>0.004244783684962296</v>
@@ -4837,28 +4837,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006969053800305103</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>11</v>
       </c>
-      <c r="D37">
-        <v>243</v>
-      </c>
-      <c r="E37">
-        <v>0.95</v>
-      </c>
-      <c r="F37">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>658</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K37">
         <v>0.004127393638672206</v>
@@ -4887,25 +4887,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006969053800305103</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>254</v>
@@ -4937,7 +4937,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C39">
         <v>10</v>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>255</v>
@@ -4987,7 +4987,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -5005,10 +5005,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K40">
         <v>0.003965471540324648</v>
@@ -5037,7 +5037,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006644732081030739</v>
+        <v>0.006744765087029562</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K41">
         <v>0.003839551308884209</v>
@@ -5087,13 +5087,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.006644732081030739</v>
+        <v>0.006398645987339165</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5105,10 +5105,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K42">
         <v>0.003796649947743099</v>
@@ -5137,13 +5137,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006644732081030739</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5155,10 +5155,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K43">
         <v>0.003753258237563852</v>
@@ -5187,13 +5187,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.006303746345294296</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K44">
         <v>0.003753258237563852</v>
@@ -5237,7 +5237,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -5255,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K45">
         <v>0.003664933906924841</v>
@@ -5287,7 +5287,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -5305,10 +5305,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K46">
         <v>0.003619963689634278</v>
@@ -5337,25 +5337,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C47">
         <v>8</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>272</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>256</v>
@@ -5387,28 +5387,28 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C48">
         <v>8</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>216</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>141</v>
+        <v>2985</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K48">
         <v>0.003386165969793387</v>
@@ -5437,28 +5437,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005943229050183349</v>
+        <v>0.006032701290746154</v>
       </c>
       <c r="C49">
         <v>8</v>
       </c>
       <c r="D49">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="E49">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F49">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>272</v>
+        <v>565</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K49">
         <v>0.003337441617036922</v>
@@ -5487,25 +5487,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005943229050183349</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="E50">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>2985</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>257</v>
@@ -5537,25 +5537,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005943229050183349</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>565</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>258</v>
@@ -5587,28 +5587,28 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.005559381719227001</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C52">
         <v>7</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K52">
         <v>0.003237793954441279</v>
@@ -5637,25 +5637,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.005559381719227001</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C53">
         <v>7</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>259</v>
@@ -5687,25 +5687,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.005559381719227001</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C54">
         <v>7</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="E54">
-        <v>0.12</v>
+        <v>0.93</v>
       </c>
       <c r="F54">
-        <v>0.88</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>260</v>
@@ -5737,25 +5737,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.005559381719227001</v>
+        <v>0.00564307533668026</v>
       </c>
       <c r="C55">
         <v>7</v>
       </c>
       <c r="D55">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E55">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F55">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>261</v>
@@ -5787,28 +5787,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.005559381719227001</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K56">
         <v>0.003028678916621805</v>
@@ -5837,28 +5837,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.005559381719227001</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E57">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K57">
         <v>0.002974103655243486</v>
@@ -5887,7 +5887,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>262</v>
@@ -5937,7 +5937,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C59">
         <v>6</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>263</v>
@@ -5987,7 +5987,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -6005,10 +6005,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K60">
         <v>0.002974103655243486</v>
@@ -6037,7 +6037,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C61">
         <v>6</v>
@@ -6055,10 +6055,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K61">
         <v>0.002918508030531336</v>
@@ -6087,7 +6087,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -6105,10 +6105,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K62">
         <v>0.002804011816765822</v>
@@ -6137,28 +6137,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C63">
         <v>6</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>406</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K63">
         <v>0.002804011816765822</v>
@@ -6187,28 +6187,28 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C64">
         <v>6</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K64">
         <v>0.002744973377048601</v>
@@ -6237,28 +6237,28 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
       <c r="D65">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="E65">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F65">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K65">
         <v>0.002684636923840696</v>
@@ -6287,28 +6287,28 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.00514698733796844</v>
+        <v>0.005224472571229342</v>
       </c>
       <c r="C66">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="E66">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="F66">
-        <v>0.13</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>87</v>
+        <v>725</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K66">
         <v>0.002684636923840696</v>
@@ -6337,28 +6337,28 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.00514698733796844</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="E67">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K67">
         <v>0.002684636923840696</v>
@@ -6387,28 +6387,28 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.00514698733796844</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="E68">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>725</v>
+        <v>4</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K68">
         <v>0.002684636923840696</v>
@@ -6437,7 +6437,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -6455,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K69">
         <v>0.002684636923840696</v>
@@ -6487,7 +6487,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -6505,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>264</v>
@@ -6537,25 +6537,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>265</v>
@@ -6587,28 +6587,28 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C72">
         <v>5</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K72">
         <v>0.002622912881700815</v>
@@ -6637,25 +6637,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.004698535113664635</v>
+        <v>0.004769269130548878</v>
       </c>
       <c r="C73">
         <v>5</v>
       </c>
       <c r="D73">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E73">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F73">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>266</v>
@@ -6687,28 +6687,28 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.004698535113664635</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K74">
         <v>0.002622912881700815</v>
@@ -6737,25 +6737,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.004698535113664635</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>267</v>
@@ -6787,28 +6787,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>954</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K76">
         <v>0.002559700872589473</v>
@@ -6837,7 +6837,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>268</v>
@@ -6887,25 +6887,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>954</v>
+        <v>2</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>269</v>
@@ -6937,7 +6937,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>270</v>
@@ -6987,7 +6987,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -7005,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K80">
         <v>0.002494887798935764</v>
@@ -7037,28 +7037,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C81">
         <v>4</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K81">
         <v>0.002494887798935764</v>
@@ -7087,25 +7087,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>271</v>
@@ -7137,28 +7137,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C83">
         <v>4</v>
       </c>
       <c r="D83">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E83">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="F83">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K83">
         <v>0.002359927599221004</v>
@@ -7187,28 +7187,28 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00420249756352953</v>
+        <v>0.004265763991559444</v>
       </c>
       <c r="C84">
         <v>4</v>
       </c>
       <c r="D84">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="E84">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F84">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K84">
         <v>0.002359927599221004</v>
@@ -7237,25 +7237,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00420249756352953</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>272</v>
@@ -7287,28 +7287,28 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00420249756352953</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K86">
         <v>0.002289466061270235</v>
@@ -7337,7 +7337,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>273</v>
@@ -7387,7 +7387,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7405,10 +7405,10 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>370</v>
+        <v>8</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K88">
         <v>0.002216765981751678</v>
@@ -7437,7 +7437,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>274</v>
@@ -7487,7 +7487,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C90">
         <v>3</v>
@@ -7505,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K90">
         <v>0.002216765981751678</v>
@@ -7537,7 +7537,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>275</v>
@@ -7587,7 +7587,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C92">
         <v>3</v>
@@ -7605,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K92">
         <v>0.002141599399980005</v>
@@ -7637,28 +7637,28 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K93">
         <v>0.002141599399980005</v>
@@ -7687,25 +7687,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>276</v>
@@ -7737,25 +7737,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="E95">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F95">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>277</v>
@@ -7787,28 +7787,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K96">
         <v>0.002063696819336103</v>
@@ -7837,13 +7837,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E97">
         <v>0.9</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>278</v>
@@ -7887,28 +7887,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K98">
         <v>0.002063696819336103</v>
@@ -7937,28 +7937,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E99">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F99">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K99">
         <v>0.002063696819336103</v>
@@ -7987,28 +7987,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K100">
         <v>0.002063696819336103</v>
@@ -8037,25 +8037,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E101">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>279</v>
@@ -8087,25 +8087,25 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>280</v>
@@ -8137,13 +8137,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E103">
         <v>0.97</v>
@@ -8155,10 +8155,10 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K103">
         <v>0.001982735770162324</v>
@@ -8187,25 +8187,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003639469649358781</v>
+        <v>0.003694259983239385</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="F104">
-        <v>0.1899999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>281</v>
@@ -8237,25 +8237,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003639469649358781</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>282</v>
@@ -8287,25 +8287,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003639469649358781</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>283</v>
@@ -8337,7 +8337,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>284</v>
@@ -8387,7 +8387,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>285</v>
@@ -8437,7 +8437,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>286</v>
@@ -8487,7 +8487,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>287</v>
@@ -8537,7 +8537,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>288</v>
@@ -8587,7 +8587,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>289</v>
@@ -8637,7 +8637,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>290</v>
@@ -8687,7 +8687,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>291</v>
@@ -8737,7 +8737,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -8787,7 +8787,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -8805,10 +8805,10 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K116">
         <v>0.001898324973871549</v>
@@ -8837,7 +8837,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C117">
         <v>2</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>293</v>
@@ -8887,25 +8887,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>294</v>
@@ -8937,28 +8937,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K119">
         <v>0.001809981844817139</v>
@@ -8987,28 +8987,28 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E120">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="F120">
-        <v>0.29</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K120">
         <v>0.001809981844817139</v>
@@ -9037,25 +9037,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E121">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F121">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G121" t="b">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>295</v>
@@ -9087,25 +9087,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="F122">
-        <v>0.09999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>296</v>
@@ -9137,25 +9137,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F123">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>297</v>
@@ -9187,25 +9187,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E124">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="F124">
-        <v>0.22</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>298</v>
@@ -9237,7 +9237,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>299</v>
@@ -9287,25 +9287,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E126">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F126">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>300</v>
@@ -9337,28 +9337,28 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E127">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K127">
         <v>0.001809981844817139</v>
@@ -9387,25 +9387,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E128">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F128">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>301</v>
@@ -9437,28 +9437,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E129">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F129">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K129">
         <v>0.001717099545952677</v>
@@ -9487,25 +9487,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E130">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F130">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>302</v>
@@ -9537,25 +9537,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="E131">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F131">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>303</v>
@@ -9587,25 +9587,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E132">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>304</v>
@@ -9637,25 +9637,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="E133">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F133">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>305</v>
@@ -9687,13 +9687,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E134">
         <v>0.97</v>
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>306</v>
@@ -9737,25 +9737,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002971614525091675</v>
+        <v>0.003016350645373077</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>307</v>
@@ -9787,25 +9787,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002971614525091675</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>308</v>
@@ -9837,13 +9837,13 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002971614525091675</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>309</v>
@@ -9887,7 +9887,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>310</v>
@@ -9937,7 +9937,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>311</v>
@@ -9987,7 +9987,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10005,10 +10005,10 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K140">
         <v>0.001618896977220639</v>
@@ -10037,7 +10037,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>312</v>
@@ -10087,7 +10087,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>313</v>
@@ -10137,7 +10137,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10155,10 +10155,10 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K143">
         <v>0.001618896977220639</v>
@@ -10187,7 +10187,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>314</v>
@@ -10237,7 +10237,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>315</v>
@@ -10287,7 +10287,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>316</v>
@@ -10337,7 +10337,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>317</v>
@@ -10387,7 +10387,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>318</v>
@@ -10437,7 +10437,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -10455,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>319</v>
@@ -10487,25 +10487,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>320</v>
@@ -10537,25 +10537,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>321</v>
@@ -10587,28 +10587,28 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K152">
         <v>0.001618896977220639</v>
@@ -10637,25 +10637,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>322</v>
@@ -10687,25 +10687,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>323</v>
@@ -10737,22 +10737,22 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
         <v>15</v>
@@ -10787,7 +10787,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -10805,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>325</v>
@@ -10837,28 +10837,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>0.5</v>
+      </c>
+      <c r="F157">
+        <v>0.5</v>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157">
         <v>4</v>
       </c>
-      <c r="E157">
-        <v>0.75</v>
-      </c>
-      <c r="F157">
-        <v>0.25</v>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>15</v>
-      </c>
       <c r="J157" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K157">
         <v>0.001514339458310902</v>
@@ -10887,28 +10887,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K158">
         <v>0.001514339458310902</v>
@@ -10937,25 +10937,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>326</v>
@@ -10987,25 +10987,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F160">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>327</v>
@@ -11037,25 +11037,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>328</v>
@@ -11087,28 +11087,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K162">
         <v>0.001514339458310902</v>
@@ -11137,25 +11137,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>329</v>
@@ -11187,28 +11187,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K164">
         <v>0.001402005908382911</v>
@@ -11237,28 +11237,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K165">
         <v>0.001402005908382911</v>
@@ -11287,7 +11287,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11305,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>330</v>
@@ -11337,28 +11337,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K167">
         <v>0.001402005908382911</v>
@@ -11387,25 +11387,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>331</v>
@@ -11437,25 +11437,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>351</v>
+        <v>58</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>332</v>
@@ -11487,25 +11487,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>333</v>
@@ -11537,25 +11537,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>334</v>
@@ -11587,25 +11587,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>335</v>
@@ -11637,25 +11637,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>336</v>
@@ -11687,25 +11687,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>337</v>
@@ -11737,25 +11737,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E175">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F175">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>338</v>
@@ -11787,25 +11787,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>339</v>
@@ -11837,25 +11837,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F177">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>340</v>
@@ -11887,28 +11887,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K178">
         <v>0.001402005908382911</v>
@@ -11937,28 +11937,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K179">
         <v>0.001402005908382911</v>
@@ -11987,28 +11987,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K180">
         <v>0.001402005908382911</v>
@@ -12037,7 +12037,7 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>341</v>
@@ -12087,25 +12087,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>342</v>
@@ -12137,25 +12137,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>343</v>
@@ -12187,25 +12187,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>344</v>
@@ -12237,25 +12237,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F185">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>345</v>
@@ -12287,25 +12287,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E186">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F186">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>346</v>
@@ -12337,28 +12337,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E187">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F187">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K187">
         <v>0.001402005908382911</v>
@@ -12387,25 +12387,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F188">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>347</v>
@@ -12437,25 +12437,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E189">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F189">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>348</v>
@@ -12487,25 +12487,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E190">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F190">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>349</v>
@@ -12537,25 +12537,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>350</v>
@@ -12587,25 +12587,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>351</v>
@@ -12637,25 +12637,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>352</v>
@@ -12687,25 +12687,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>353</v>
@@ -12737,28 +12737,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K195">
         <v>0.001279850436294736</v>
@@ -12787,25 +12787,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>354</v>
@@ -12837,25 +12837,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E197">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F197">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>355</v>
@@ -12887,28 +12887,28 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F198">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K198">
         <v>0.001279850436294736</v>
@@ -12937,25 +12937,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E199">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F199">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>356</v>
@@ -12987,25 +12987,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F200">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>357</v>
@@ -13037,25 +13037,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E201">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F201">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>41</v>
+        <v>1101</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>358</v>
@@ -13087,25 +13087,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E202">
-        <v>0.8</v>
+        <v>0.99</v>
       </c>
       <c r="F202">
-        <v>0.2</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>359</v>
@@ -13137,25 +13137,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F203">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>1101</v>
+        <v>37</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>360</v>
@@ -13187,25 +13187,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E204">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F204">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>361</v>
@@ -13237,25 +13237,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="E205">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F205">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>362</v>
@@ -13287,25 +13287,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E206">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F206">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>363</v>
@@ -13337,25 +13337,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="E207">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>364</v>
@@ -13387,7 +13387,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>365</v>
@@ -13437,25 +13437,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>366</v>
@@ -13487,28 +13487,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E210">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F210">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K210">
         <v>0.001279850436294736</v>
@@ -13537,25 +13537,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>367</v>
@@ -13587,25 +13587,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F212">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>368</v>
@@ -13637,25 +13637,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>369</v>
@@ -13687,28 +13687,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K214">
         <v>0.001279850436294736</v>
@@ -13737,13 +13737,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E215">
         <v>0.9399999999999999</v>
@@ -13755,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>370</v>
@@ -13787,25 +13787,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>371</v>
@@ -13837,25 +13837,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E217">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F217">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>372</v>
@@ -13887,25 +13887,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>373</v>
@@ -13937,25 +13937,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E219">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F219">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>374</v>
@@ -13987,28 +13987,28 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E220">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F220">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K220">
         <v>0.001279850436294736</v>
@@ -14037,25 +14037,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E221">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F221">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>375</v>
@@ -14087,25 +14087,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>376</v>
@@ -14137,25 +14137,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E223">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>377</v>
@@ -14187,25 +14187,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>378</v>
@@ -14237,25 +14237,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>379</v>
@@ -14287,25 +14287,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E226">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>6</v>
+        <v>531</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>380</v>
@@ -14337,13 +14337,13 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E227">
         <v>0.96</v>
@@ -14355,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>381</v>
@@ -14387,25 +14387,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="E228">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F228">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>531</v>
+        <v>18</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>382</v>
@@ -14437,25 +14437,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>383</v>
@@ -14487,22 +14487,22 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
         <v>18</v>
@@ -14537,28 +14537,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K231">
         <v>0.001144733030635118</v>
@@ -14587,25 +14587,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>385</v>
@@ -14637,25 +14637,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>386</v>
@@ -14687,25 +14687,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E234">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F234">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>387</v>
@@ -14737,25 +14737,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>388</v>
@@ -14787,25 +14787,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>389</v>
@@ -14837,25 +14837,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>390</v>
@@ -14887,25 +14887,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>391</v>
@@ -14937,7 +14937,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -14955,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>392</v>
@@ -14987,7 +14987,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15005,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>393</v>
@@ -15037,7 +15037,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>394</v>
@@ -15087,7 +15087,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>395</v>
@@ -15137,7 +15137,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>396</v>
@@ -15187,7 +15187,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>397</v>
@@ -15237,7 +15237,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002101248781764765</v>
+        <v>0.002132881995779722</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>398</v>
@@ -15283,30 +15283,6 @@
       </c>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B246">
-        <v>0.002101248781764765</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246">
-        <v>14</v>
-      </c>
       <c r="J246" s="1" t="s">
         <v>399</v>
       </c>
@@ -15333,30 +15309,6 @@
       </c>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B247">
-        <v>0.002101248781764765</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247">
-        <v>1</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247">
-        <v>54</v>
-      </c>
       <c r="J247" s="1" t="s">
         <v>400</v>
       </c>
@@ -15436,7 +15388,7 @@
     </row>
     <row r="250" spans="1:17">
       <c r="J250" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K250">
         <v>0.001144733030635118</v>
@@ -15488,7 +15440,7 @@
     </row>
     <row r="252" spans="1:17">
       <c r="J252" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K252">
         <v>0.001144733030635118</v>
@@ -15670,7 +15622,7 @@
     </row>
     <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K259">
         <v>0.001144733030635118</v>
@@ -15878,7 +15830,7 @@
     </row>
     <row r="267" spans="10:17">
       <c r="J267" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K267">
         <v>0.0009913678850811619</v>
@@ -15930,7 +15882,7 @@
     </row>
     <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K269">
         <v>0.0009913678850811619</v>
@@ -16164,7 +16116,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K278">
         <v>0.0009913678850811619</v>
@@ -16190,7 +16142,7 @@
     </row>
     <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K279">
         <v>0.0009913678850811619</v>
@@ -16658,7 +16610,7 @@
     </row>
     <row r="297" spans="10:17">
       <c r="J297" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K297">
         <v>0.0009913678850811619</v>
@@ -16710,7 +16662,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K299">
         <v>0.0009913678850811619</v>
@@ -17178,7 +17130,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K317">
         <v>0.0009913678850811619</v>
@@ -17308,7 +17260,7 @@
     </row>
     <row r="322" spans="10:17">
       <c r="J322" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K322">
         <v>0.0009913678850811619</v>
@@ -17802,7 +17754,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K341">
         <v>0.0008094484886103197</v>
@@ -17932,7 +17884,7 @@
     </row>
     <row r="346" spans="10:17">
       <c r="J346" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K346">
         <v>0.0008094484886103197</v>
@@ -18010,7 +17962,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K349">
         <v>0.0008094484886103197</v>
@@ -18140,7 +18092,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K354">
         <v>0.0008094484886103197</v>
@@ -18270,7 +18222,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K359">
         <v>0.0008094484886103197</v>
@@ -18452,7 +18404,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K366">
         <v>0.0008094484886103197</v>
@@ -19102,7 +19054,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K391">
         <v>0.0008094484886103197</v>
@@ -19544,7 +19496,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K408">
         <v>0.0008094484886103197</v>
@@ -20142,7 +20094,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K431">
         <v>0.0008094484886103197</v>
@@ -20246,7 +20198,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K435">
         <v>0.0008094484886103197</v>
@@ -20844,7 +20796,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K458">
         <v>0.0008094484886103197</v>
@@ -21364,7 +21316,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K478">
         <v>0.0005723665153175588</v>
@@ -21546,7 +21498,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K485">
         <v>0.0005723665153175588</v>
@@ -22300,7 +22252,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K514">
         <v>0.0005723665153175588</v>
@@ -23652,7 +23604,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K566">
         <v>0.0005723665153175588</v>
@@ -24094,7 +24046,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K583">
         <v>0.0005723665153175588</v>
@@ -25394,7 +25346,7 @@
     </row>
     <row r="633" spans="10:17">
       <c r="J633" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K633">
         <v>0.0005723665153175588</v>
@@ -26928,7 +26880,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K692">
         <v>0.0005723665153175588</v>
@@ -27370,7 +27322,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K709">
         <v>0.0005723665153175588</v>
@@ -28306,7 +28258,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K745">
         <v>0.0005723665153175588</v>
@@ -28384,7 +28336,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K748">
         <v>0.0005723665153175588</v>
